--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1742671.892965261</v>
+        <v>1767186.574436179</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9.891109467671333</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>21.84039882228386</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>46.38724422570588</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.170977004479167</v>
+      </c>
+      <c r="I4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.170977004479181</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>53.51252900994975</v>
@@ -908,7 +908,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>84.41978777916125</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>144.657786985058</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1266,19 +1266,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,20 +1367,20 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21.85442600983729</v>
+      </c>
+      <c r="E11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>33.69176698831624</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>49.59973045914182</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>62.88143347497287</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>115.5785074418532</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>20.00655925198969</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>212.2853856434421</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X24" t="n">
-        <v>133.1326059558019</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2494,40 +2494,40 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2634,19 +2634,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>106.6874096712025</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2691,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>114.2744056404517</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200.3360962888296</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,58 +2807,58 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>19.04632434133429</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>222.3082294474576</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>241.0142888776591</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>241.0142888776591</v>
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>101.5728022630668</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>111.1751113141405</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3171,10 +3171,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,28 +3266,28 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,28 +3345,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>2.042753987605476</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,58 +3512,58 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>151.7201222818654</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>19.23097888973112</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3658,61 +3658,61 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,61 +3740,61 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T41" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>16.16726461546774</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>12.94771755361639</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3910,58 +3910,58 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="45">
@@ -4059,25 +4059,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>10.44050690300997</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>90.91642501047011</v>
       </c>
     </row>
     <row r="46">
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.85238145955221</v>
+        <v>73.79137254815437</v>
       </c>
       <c r="C2" t="n">
-        <v>95.85238145955221</v>
+        <v>73.79137254815437</v>
       </c>
       <c r="D2" t="n">
-        <v>95.85238145955221</v>
+        <v>73.79137254815437</v>
       </c>
       <c r="E2" t="n">
-        <v>95.85238145955221</v>
+        <v>73.79137254815437</v>
       </c>
       <c r="F2" t="n">
-        <v>85.86136179523773</v>
+        <v>19.73831294214452</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L2" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="L2" t="n">
-        <v>110.2358097604965</v>
-      </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4352,16 +4352,16 @@
         <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="V2" t="n">
         <v>149.9054410655621</v>
@@ -4370,10 +4370,10 @@
         <v>149.9054410655621</v>
       </c>
       <c r="X2" t="n">
-        <v>149.9054410655621</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>149.9054410655621</v>
+        <v>73.79137254815437</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4410,49 +4410,49 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M3" t="n">
+        <v>55.11790488024824</v>
+      </c>
+      <c r="N3" t="n">
+        <v>55.11790488024824</v>
+      </c>
+      <c r="O3" t="n">
         <v>108.0953086000985</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="O3" t="n">
-        <v>214.050116039799</v>
-      </c>
-      <c r="P3" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="T3" t="n">
-        <v>105.9439968277793</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="U3" t="n">
-        <v>59.08819457959154</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="V3" t="n">
-        <v>5.035134973581694</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="W3" t="n">
-        <v>5.035134973581694</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581694</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>167.1943137916113</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.01130316959576</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="C4" t="n">
-        <v>80.82849811456629</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="D4" t="n">
-        <v>80.82849811456629</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="E4" t="n">
-        <v>80.82849811456629</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="F4" t="n">
-        <v>80.82849811456629</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="G4" t="n">
-        <v>80.82849811456629</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="I4" t="n">
         <v>80.82849811456629</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4592,25 +4592,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4781,19 +4781,19 @@
         <v>559.1338160830064</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4838,13 +4838,13 @@
         <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y8" t="n">
         <v>559.1338160830064</v>
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4887,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4942,25 +4942,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5066,25 +5066,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X11" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y11" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>761.8097306235821</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>587.3567013424552</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>438.4222916812039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>279.1848366757484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5124,46 +5124,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>930.0250676436501</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>930.0250676436501</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>930.0250676436501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>930.0250676436501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>930.0250676436501</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
         <v>19.28114311021272</v>
@@ -5388,19 +5388,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>437.1829490354398</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>437.1829490354398</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>789.6041262295092</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>640.669716568258</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4322615628025</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8977035896875</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>196.166878172303</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>82.7977425798823</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5695,7 +5695,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5795,7 +5795,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>304.9965798960495</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C21" t="n">
-        <v>130.5435506149225</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="D21" t="n">
-        <v>130.5435506149225</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="E21" t="n">
-        <v>130.5435506149225</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>130.5435506149225</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>130.5435506149225</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5832,13 +5832,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6032,7 +6032,7 @@
         <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6078,40 +6078,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>586.1309991132009</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>586.1309991132009</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6175,22 +6175,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>756.2056553051034</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="C27" t="n">
-        <v>581.7526260239764</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D27" t="n">
-        <v>432.8182163627251</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E27" t="n">
-        <v>273.5807613572696</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F27" t="n">
-        <v>127.0462033841546</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X27" t="n">
-        <v>756.2056553051034</v>
+        <v>512.3068252656662</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2056553051034</v>
+        <v>304.5465265007123</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.7999090013961</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>521.1447485139397</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>346.6917192328127</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>197.7573095715614</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>38.51985456610595</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6552,40 +6552,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>262.7299197543128</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>271.5684755889637</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6340659277124</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6340659277124</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,10 +6786,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>678.3417187247995</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>446.0215048700907</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6895,13 +6895,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="F35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="G35" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="C35" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="D35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G35" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6977,10 +6977,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>852.7947480059265</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>609.3459713618265</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X36" t="n">
-        <v>401.4944711562937</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="37">
@@ -7111,34 +7111,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>319.0683498528888</v>
+        <v>38.70637431196133</v>
       </c>
       <c r="C39" t="n">
-        <v>319.0683498528888</v>
+        <v>38.70637431196133</v>
       </c>
       <c r="D39" t="n">
-        <v>319.0683498528888</v>
+        <v>38.70637431196133</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>38.70637431196133</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>38.70637431196133</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7257,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X39" t="n">
-        <v>487.2836868729568</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="Y39" t="n">
-        <v>487.2836868729568</v>
+        <v>38.70637431196133</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C41" t="n">
-        <v>749.627473042513</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7436,25 +7436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35.61171342886701</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>35.61171342886701</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>35.61171342886701</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>35.61171342886701</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>35.61171342886701</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7491,19 +7491,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7512,28 +7512,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>619.4388494194218</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X42" t="n">
-        <v>411.587349213889</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.827050448935</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7609,10 +7609,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7679,19 +7679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>577.9072497513741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7755,22 +7755,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V45" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W45" t="n">
-        <v>588.4532163200711</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X45" t="n">
-        <v>588.4532163200711</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="Y45" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7837,19 +7837,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>189.1918456000683</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,13 +8307,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,7 +8456,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,10 +9252,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>186.8580120236956</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9726,7 +9726,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,16 +10200,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10683,7 +10683,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,22 +10905,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11151,10 +11151,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>332.8286156108456</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23276,10 +23276,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23315,7 +23315,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,25 +23334,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>192.2496150926586</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,19 +23540,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,7 +23574,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23628,13 +23628,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>176.341651621833</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>26.5151993764422</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,10 +23935,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23984,7 +23984,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>42.06657301354778</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24063,10 +24063,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>92.22888498450678</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24221,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24294,13 +24294,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X24" t="n">
-        <v>72.64037924767553</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24382,7 +24382,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24455,7 +24455,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24488,7 +24488,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24500,13 +24500,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>265.3359907678426</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24522,19 +24522,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>30.65610749200818</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24579,16 +24579,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>91.49857956302573</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366913</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>182.397745374651</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,13 +24695,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,10 +24722,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,16 +24759,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>126.0228880520496</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>3.633152633517255</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>124.2586028933485</v>
@@ -24935,7 +24935,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24965,7 +24965,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>145.2236497783945</v>
@@ -24996,16 +24996,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>43.49641013031705</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25050,7 +25050,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>114.7662707668343</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25059,10 +25059,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,28 +25154,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25217,10 +25217,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,28 +25233,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>170.6657450007103</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,22 +25284,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>90.01494526515901</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,13 +25400,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25451,7 +25451,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,13 +25476,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>5.924958173535543</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>118.1125382734795</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25521,22 +25521,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25628,19 +25628,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>385.6922903709871</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25676,13 +25676,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25707,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,7 +25719,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>121.1762525477429</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,7 +25767,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>238.7472656073032</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25919,19 +25919,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="45">
@@ -25947,25 +25947,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>137.0045586616288</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,22 +25995,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>114.7662707668343</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>357424.0807775802</v>
+        <v>357424.0807775803</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>357424.0807775803</v>
+        <v>357424.0807775804</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357424.0807775803</v>
+        <v>357424.0807775804</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>357424.0807775803</v>
+        <v>357424.0807775804</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982126</v>
@@ -26335,7 +26335,7 @@
         <v>249241.0087969986</v>
       </c>
       <c r="J2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="K2" t="n">
         <v>249241.0087969986</v>
@@ -26347,7 +26347,7 @@
         <v>249241.0087969986</v>
       </c>
       <c r="N2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="O2" t="n">
         <v>249241.0087969986</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350176.5876421471</v>
+        <v>347968.0377624266</v>
       </c>
       <c r="C4" t="n">
-        <v>307255.7689654693</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="D4" t="n">
-        <v>307255.7689654693</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="F4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>210790.2987328591</v>
+        <v>212998.8486125794</v>
       </c>
       <c r="C6" t="n">
-        <v>199667.9674823135</v>
+        <v>202695.9406007042</v>
       </c>
       <c r="D6" t="n">
-        <v>260244.2896689816</v>
+        <v>263272.2627873723</v>
       </c>
       <c r="E6" t="n">
-        <v>206277.0987022269</v>
+        <v>209305.0718206176</v>
       </c>
       <c r="F6" t="n">
-        <v>206277.098702227</v>
+        <v>209305.0718206177</v>
       </c>
       <c r="G6" t="n">
-        <v>206277.098702227</v>
+        <v>209305.0718206177</v>
       </c>
       <c r="H6" t="n">
-        <v>206277.098702227</v>
+        <v>209305.0718206177</v>
       </c>
       <c r="I6" t="n">
-        <v>206277.098702227</v>
+        <v>209305.0718206177</v>
       </c>
       <c r="J6" t="n">
-        <v>192275.8665619477</v>
+        <v>195303.8396803384</v>
       </c>
       <c r="K6" t="n">
-        <v>158020.1457685943</v>
+        <v>161048.118886985</v>
       </c>
       <c r="L6" t="n">
-        <v>206277.098702227</v>
+        <v>209305.0718206177</v>
       </c>
       <c r="M6" t="n">
-        <v>206277.098702227</v>
+        <v>209305.0718206177</v>
       </c>
       <c r="N6" t="n">
-        <v>206277.0987022269</v>
+        <v>209305.0718206176</v>
       </c>
       <c r="O6" t="n">
-        <v>206277.098702227</v>
+        <v>209305.0718206176</v>
       </c>
       <c r="P6" t="n">
-        <v>206277.098702227</v>
+        <v>209305.0718206176</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2213126535308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>396.9849362740401</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,10 +27397,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27436,16 +27436,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2397294601852</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>316.2185716685193</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>364.3975398337697</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>83.83098815326088</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>53.77058992693726</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>179.5541378552689</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>179.2880581394755</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.3194511719875</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>166.0758440941487</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,10 +27552,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>161.0561955029604</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
         <v>39.84665110672302</v>
@@ -27628,7 +27628,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>330.8829497359738</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>18.14994616795082</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>366.3997666085763</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>298.998522982632</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27910,7 +27910,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>28.05071200325779</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27947,13 +27947,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27986,19 +27986,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28026,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>54.03113748306089</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>51.35040662570936</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35492,22 +35492,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,10 +35972,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37871,10 +37871,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1767186.574436179</v>
+        <v>1769510.246250047</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>13.00576294050473</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.84039882228386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="F3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>53.51252900994975</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.38724422570588</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.170977004479167</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>53.51252900994975</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.89241773958567</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -905,64 +907,64 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -1026,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>40.47627913313511</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>33.60023339142363</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>96.52468151912586</v>
+        <v>216.6999729388017</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,67 +1369,67 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>21.85442600983729</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F11" t="n">
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1464,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1503,16 +1505,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>144.5674975588848</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1610,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1683,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>56.26539607665198</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1734,19 +1736,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1850,64 +1852,64 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>33.80371536444981</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1977,13 +1979,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>230.5219311756913</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2041,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,67 +2080,67 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>115.5785074418532</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>24.74894597221386</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2321,11 +2323,11 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2451,16 +2453,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2643,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="X27" t="n">
-        <v>114.2744056404517</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
@@ -2871,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>19.04632434133429</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>67.35888363780772</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,14 +3028,14 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>124.9970695510301</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>101.5728022630668</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,70 +3268,70 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>2.042753987605476</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>3.55522121023865</v>
       </c>
     </row>
     <row r="37">
@@ -3421,64 +3423,64 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C38" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3594,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>19.23097888973112</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3633,7 +3635,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>19.23097888973112</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3703,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3785,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>137.0062620734511</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>12.94771755361639</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,73 +3979,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>10.27068583523948</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4110,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>90.91642501047011</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4147,58 +4149,58 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.79137254815437</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="C2" t="n">
-        <v>73.79137254815437</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="D2" t="n">
-        <v>73.79137254815437</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>73.79137254815437</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="F2" t="n">
-        <v>19.73831294214452</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4334,7 +4336,7 @@
         <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M2" t="n">
         <v>108.0953086000985</v>
@@ -4343,37 +4345,37 @@
         <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>149.9054410655621</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V2" t="n">
-        <v>149.9054410655621</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="W2" t="n">
-        <v>149.9054410655621</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="X2" t="n">
-        <v>95.85238145955221</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="Y2" t="n">
-        <v>73.79137254815437</v>
+        <v>92.8068625444412</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.1943137916113</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C3" t="n">
-        <v>167.1943137916113</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D3" t="n">
-        <v>167.1943137916113</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E3" t="n">
-        <v>167.1943137916113</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="F3" t="n">
-        <v>113.1412541856014</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
         <v>59.08819457959154</v>
@@ -4410,49 +4412,49 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>55.11790488024824</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M3" t="n">
-        <v>55.11790488024824</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>55.11790488024824</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8815577205762</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="I4" t="n">
         <v>80.82849811456629</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="F5" t="n">
+        <v>278.1872303756613</v>
+      </c>
+      <c r="G5" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="G5" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C6" t="n">
         <v>817.1412885554689</v>
@@ -4650,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D8" t="n">
-        <v>315.6850394389064</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E8" t="n">
-        <v>315.6850394389064</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
         <v>274.7999090013961</v>
@@ -4832,22 +4834,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="V8" t="n">
-        <v>559.1338160830064</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="W8" t="n">
-        <v>559.1338160830064</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="X8" t="n">
-        <v>559.1338160830064</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>281.7454097505996</v>
       </c>
     </row>
     <row r="9">
@@ -4884,43 +4886,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>262.7299197543128</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
         <v>19.28114311021272</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5066,25 +5068,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>752.9257720901863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V11" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W11" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X11" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y11" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5151,19 +5153,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>341.255911560952</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>341.255911560952</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E15" t="n">
         <v>19.28114311021272</v>
@@ -5367,10 +5369,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5384,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5542,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5625,19 +5627,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5689,10 +5691,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>23.90796037760316</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
     </row>
     <row r="25">
@@ -6175,13 +6177,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V27" t="n">
-        <v>627.7355178317791</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W27" t="n">
-        <v>627.7355178317791</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>512.3068252656662</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>521.1447485139397</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C30" t="n">
-        <v>346.6917192328127</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>197.7573095715614</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>38.51985456610595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6546,16 +6548,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>621.4310051123648</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y30" t="n">
-        <v>521.1447485139397</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="31">
@@ -6643,10 +6645,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>475.3318284112885</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U32" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V32" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W32" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X32" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y32" t="n">
-        <v>718.7806050553886</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>446.0215048700907</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>271.5684755889637</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>122.6340659277124</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>122.6340659277124</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,43 +6788,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N33" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N33" t="n">
-        <v>781.4136778972854</v>
-      </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W33" t="n">
-        <v>446.0215048700907</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X33" t="n">
-        <v>446.0215048700907</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y33" t="n">
-        <v>446.0215048700907</v>
+        <v>145.5408093233744</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6877,31 +6879,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E35" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F35" t="n">
-        <v>720.6083788665362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>728.9050472788936</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>726.8416594126254</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>577.9072497513741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>178.8501590306595</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9050472788936</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7126,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>38.70637431196133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>38.70637431196133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>38.70637431196133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>38.70637431196133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>38.70637431196133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7260,7 +7262,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
         <v>473.4149733950735</v>
@@ -7281,22 +7283,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V39" t="n">
-        <v>454.3181732824481</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W39" t="n">
-        <v>454.3181732824481</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>246.4666730769152</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>38.70637431196133</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>527.5764290961142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>284.1276524520142</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V41" t="n">
-        <v>284.1276524520142</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W41" t="n">
-        <v>284.1276524520142</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X41" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>157.6713068207694</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7494,19 +7496,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M42" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>621.8469951458151</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O42" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W42" t="n">
-        <v>777.5613083818946</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X42" t="n">
-        <v>569.7098081763618</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.9495094114078</v>
+        <v>325.8866438408374</v>
       </c>
     </row>
     <row r="43">
@@ -7594,19 +7596,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
         <v>19.28114311021272</v>
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
         <v>262.7299197543128</v>
@@ -7634,10 +7636,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7679,19 +7681,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>562.4161926976942</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V45" t="n">
-        <v>562.4161926976942</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W45" t="n">
-        <v>318.9674160535941</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X45" t="n">
-        <v>111.1159158480613</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7846,10 +7848,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7984,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>281.6966398529821</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
         <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1918456000683</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>189.9047864055835</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8076,7 +8078,7 @@
         <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9015,13 +9017,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,7 +9971,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10194,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10434,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>173.111405903722</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11151,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>332.8286156108456</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23352,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23391,16 +23393,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>88.23308959054049</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23428,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>57.07350359897357</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23440,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23498,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23571,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>110.2677875732154</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23622,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23789,13 +23791,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>335.9273853140192</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23865,13 +23867,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>21.17305198522826</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23929,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24026,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,7 +24056,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>42.06657301354778</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>226.9460371887057</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24142,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24169,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24209,10 +24211,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>41.62640352501036</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24339,16 +24341,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24497,19 +24499,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24531,10 +24533,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24582,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>126.7882030360626</v>
       </c>
       <c r="X27" t="n">
-        <v>91.49857956302573</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>302.2574731329353</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24734,13 +24736,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
@@ -24759,16 +24761,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>126.0228880520496</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>158.5824984431671</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>284.9381847551875</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24935,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24962,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>207.2105735132092</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>41.53611409883725</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>43.49641013031705</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,19 +25165,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25214,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>170.6657450007103</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>202.1274745670657</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25366,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25482,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>118.1125382734795</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25521,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>180.9337498050905</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25591,16 +25593,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25628,16 +25630,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>385.6922903709871</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25673,13 +25675,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
@@ -25688,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>35.70223691486467</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25755,22 +25757,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>238.7472656073032</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,7 +25867,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25919,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25956,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>127.0728313279712</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -25998,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>114.7662707668343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357424.0807775803</v>
+        <v>357424.0807775802</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>357424.0807775804</v>
+        <v>357424.0807775803</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357424.0807775804</v>
+        <v>357424.0807775803</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357424.0807775803</v>
+        <v>357424.0807775804</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357424.0807775803</v>
+        <v>357424.0807775804</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357424.0807775803</v>
+        <v>357424.0807775804</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>249241.0087969986</v>
+      </c>
+      <c r="F2" t="n">
         <v>249241.0087969985</v>
-      </c>
-      <c r="F2" t="n">
-        <v>249241.0087969986</v>
       </c>
       <c r="G2" t="n">
         <v>249241.0087969986</v>
@@ -26347,13 +26349,13 @@
         <v>249241.0087969986</v>
       </c>
       <c r="N2" t="n">
-        <v>249241.0087969986</v>
+        <v>249241.0087969985</v>
       </c>
       <c r="O2" t="n">
         <v>249241.0087969986</v>
       </c>
       <c r="P2" t="n">
-        <v>249241.0087969986</v>
+        <v>249241.0087969985</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>212998.8486125794</v>
+        <v>212998.8486125796</v>
       </c>
       <c r="C6" t="n">
-        <v>202695.9406007042</v>
+        <v>202695.9406007039</v>
       </c>
       <c r="D6" t="n">
-        <v>263272.2627873723</v>
+        <v>263272.2627873722</v>
       </c>
       <c r="E6" t="n">
+        <v>209305.0718206177</v>
+      </c>
+      <c r="F6" t="n">
         <v>209305.0718206176</v>
-      </c>
-      <c r="F6" t="n">
-        <v>209305.0718206177</v>
       </c>
       <c r="G6" t="n">
         <v>209305.0718206177</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,10 +27399,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,31 +27423,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>314.7464955296302</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>316.2185716685193</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>364.3975398337697</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,13 +27466,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>111.257836229695</v>
       </c>
       <c r="F3" t="n">
         <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
-        <v>83.83098815326088</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>58.72291522654671</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.77058992693726</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27552,10 +27554,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.0561955029604</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>39.84665110672302</v>
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>173.4009736375838</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27625,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27658,31 +27660,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>170.6702810763838</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>179.6244982918734</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27746,7 +27748,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>154.8758545618492</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>366.3997666085763</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -27904,22 +27906,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>189.4956161727077</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27977,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>136.2759056302994</v>
+        <v>16.10061421062358</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28026,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>54.03113748306089</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34702,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="M2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>51.35040662570935</v>
       </c>
       <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="L3" t="n">
         <v>51.35040662570935</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35735,13 +35737,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36674,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,7 +36691,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>34.55702612384782</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37628,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>226.4350751681936</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37862,7 +37864,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37871,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1769510.246250047</v>
+        <v>1700658.949808609</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.015063725959893</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>13.00576294050473</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,55 +740,55 @@
         <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>47.13383555196375</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>26.16190956546852</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.89241773958567</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>29.78216610882018</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,28 +940,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,22 +1025,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>66.52200288537664</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>14.47942859368512</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>33.60023339142363</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>216.6999729388017</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,23 +1369,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
     </row>
     <row r="12">
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>144.5674975588848</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T14" t="n">
-        <v>72.47049842454879</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>56.26539607665198</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>203.9986864632803</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1764,55 +1764,55 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>33.80371536444981</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>5.930131219116133</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>230.5219311756913</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2043,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>24.74894597221386</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>124.9488863009592</v>
       </c>
       <c r="U23" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.906780124857</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,11 +2566,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>124.906780124857</v>
+        <v>171.9201139181635</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>41.7314554634327</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>67.35888363780772</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>182.7004482653351</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3073,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>124.9970695510301</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3170,10 +3170,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>28.2202609802234</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3231,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>52.42556848774763</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3407,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.55522121023865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D38" t="n">
         <v>241.0142888776591</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3547,25 +3547,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3587,22 +3587,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>54.60013798127831</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>19.23097888973112</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,11 +3748,11 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>137.0062620734511</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>68.24004258484187</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3976,26 +3976,26 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>212.285385643442</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>10.27068583523948</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>86.33905572536996</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4118,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.8068625444412</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>92.8068625444412</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
         <v>92.8068625444412</v>
@@ -4333,16 +4333,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L2" t="n">
-        <v>55.11790488024824</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
         <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4351,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>105.9439968277793</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>92.8068625444412</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>92.8068625444412</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>92.8068625444412</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>92.8068625444412</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>159.9970564337892</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="D3" t="n">
-        <v>159.9970564337892</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="E3" t="n">
-        <v>113.1412541856014</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="F3" t="n">
-        <v>59.08819457959154</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
@@ -4415,16 +4415,16 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
         <v>214.050116039799</v>
@@ -4436,25 +4436,25 @@
         <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.82849811456629</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C4" t="n">
-        <v>80.82849811456629</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D4" t="n">
-        <v>80.82849811456629</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E4" t="n">
-        <v>80.82849811456629</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="F4" t="n">
-        <v>80.82849811456629</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="G4" t="n">
-        <v>80.82849811456629</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>106.8319505572413</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>146.0199887494634</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>189.7108394048997</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R4" t="n">
-        <v>134.8815577205762</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S4" t="n">
-        <v>134.8815577205762</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T4" t="n">
-        <v>134.8815577205762</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U4" t="n">
-        <v>134.8815577205762</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V4" t="n">
-        <v>80.82849811456629</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W4" t="n">
-        <v>80.82849811456629</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X4" t="n">
-        <v>80.82849811456629</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.82849811456629</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.1327311248648</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C5" t="n">
-        <v>285.1327311248648</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D5" t="n">
-        <v>285.1327311248648</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E5" t="n">
-        <v>285.1327311248648</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F5" t="n">
-        <v>278.1872303756613</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W5" t="n">
-        <v>477.1596022224361</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X5" t="n">
-        <v>285.1327311248648</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y5" t="n">
-        <v>285.1327311248648</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>817.1412885554689</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>817.1412885554689</v>
+        <v>622.2763392057295</v>
       </c>
       <c r="V6" t="n">
-        <v>817.1412885554689</v>
+        <v>387.1242309739868</v>
       </c>
       <c r="W6" t="n">
-        <v>817.1412885554689</v>
+        <v>387.1242309739868</v>
       </c>
       <c r="X6" t="n">
-        <v>817.1412885554689</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.1412885554689</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4770,7 +4770,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>281.7454097505996</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C8" t="n">
-        <v>281.7454097505996</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D8" t="n">
-        <v>281.7454097505996</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E8" t="n">
-        <v>281.7454097505996</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>768.6429630387997</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>768.6429630387997</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V8" t="n">
-        <v>768.6429630387997</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W8" t="n">
-        <v>768.6429630387997</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X8" t="n">
-        <v>525.1941863946997</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y8" t="n">
-        <v>281.7454097505996</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>470.5814199598456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U11" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V11" t="n">
-        <v>477.1596022224361</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W11" t="n">
-        <v>477.1596022224361</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X11" t="n">
-        <v>477.1596022224361</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y11" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U12" t="n">
-        <v>487.2836868729568</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V12" t="n">
-        <v>341.255911560952</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W12" t="n">
-        <v>341.255911560952</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X12" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5184,22 +5184,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T14" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5372,10 +5372,10 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5384,25 +5384,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V15" t="n">
-        <v>627.7355178317791</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W15" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X15" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y15" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5460,28 +5460,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C17" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D17" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E17" t="n">
-        <v>231.8830517671884</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F17" t="n">
-        <v>231.8830517671884</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="T17" t="n">
-        <v>752.9257720901863</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U17" t="n">
-        <v>752.9257720901863</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V17" t="n">
-        <v>509.4769954460863</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W17" t="n">
-        <v>509.4769954460863</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X17" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y17" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F18" t="n">
         <v>19.28114311021272</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>958.0671239761755</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>755.8805293349415</v>
       </c>
       <c r="U18" t="n">
-        <v>487.2836868729568</v>
+        <v>755.8805293349415</v>
       </c>
       <c r="V18" t="n">
-        <v>252.1315786412141</v>
+        <v>755.8805293349415</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>755.8805293349415</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>548.0290291294086</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>340.2687303644548</v>
       </c>
     </row>
     <row r="19">
@@ -5691,10 +5691,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
         <v>19.28114311021272</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>348.0024326625565</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>591.4512093066566</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V20" t="n">
-        <v>348.0024326625565</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W20" t="n">
-        <v>348.0024326625565</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X20" t="n">
-        <v>348.0024326625565</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y20" t="n">
-        <v>348.0024326625565</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="21">
@@ -5837,16 +5837,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5855,19 +5855,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V21" t="n">
-        <v>252.1315786412141</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
         <v>227.1326433157456</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>353.3011080883284</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>353.3011080883284</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>145.4496078827955</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>145.4496078827955</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6177,13 +6177,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
         <v>262.7299197543128</v>
@@ -6214,7 +6214,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>710.516763498309</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,10 +6314,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>353.3011080883284</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>555.2483665534759</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>555.2483665534759</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>347.488067788522</v>
       </c>
     </row>
     <row r="28">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6548,10 +6548,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>621.4310051123648</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>386.2788968806221</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>386.2788968806221</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>386.2788968806221</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
@@ -6645,28 +6645,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>587.3248651012614</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>587.3248651012614</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V32" t="n">
-        <v>587.3248651012614</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W32" t="n">
-        <v>587.3248651012614</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X32" t="n">
-        <v>587.3248651012614</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y32" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,10 +6788,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>353.3011080883284</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>353.3011080883284</v>
+        <v>700.3997331574558</v>
       </c>
       <c r="X33" t="n">
-        <v>353.3011080883284</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="Y33" t="n">
-        <v>145.5408093233744</v>
+        <v>284.787934186969</v>
       </c>
     </row>
     <row r="34">
@@ -6879,22 +6879,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C35" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D35" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E35" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F35" t="n">
-        <v>72.23626279480629</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W35" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X35" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y35" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7019,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7043,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U36" t="n">
-        <v>432.4774131586771</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V36" t="n">
-        <v>197.3253049269343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W36" t="n">
-        <v>197.3253049269343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>197.3253049269343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7128,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D38" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C38" t="n">
+      <c r="E38" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>470.5044397581705</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>311.266984752715</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>164.7324267796</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>164.7324267796</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7256,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
         <v>473.4149733950735</v>
@@ -7280,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>670.0450503124422</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>670.0450503124422</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>434.8929420806995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="40">
@@ -7353,22 +7353,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="C41" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="D41" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="E41" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E41" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7411,7 +7411,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K41" t="n">
         <v>122.2961490211351</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V41" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>325.7766548071333</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.6713068207694</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7496,10 +7496,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
         <v>712.019119383956</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>895.1278195663515</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>895.1278195663515</v>
       </c>
       <c r="U42" t="n">
-        <v>533.6469426057913</v>
+        <v>895.1278195663515</v>
       </c>
       <c r="V42" t="n">
-        <v>533.6469426057913</v>
+        <v>659.9757113346088</v>
       </c>
       <c r="W42" t="n">
-        <v>533.6469426057913</v>
+        <v>416.5269346905088</v>
       </c>
       <c r="X42" t="n">
-        <v>533.6469426057913</v>
+        <v>416.5269346905088</v>
       </c>
       <c r="Y42" t="n">
-        <v>325.8866438408374</v>
+        <v>416.5269346905088</v>
       </c>
     </row>
     <row r="43">
@@ -7593,7 +7593,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
         <v>19.28114311021272</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C44" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D44" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E44" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F44" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G44" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C44" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D44" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E44" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F44" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G44" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7669,22 +7669,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
         <v>506.1786963984129</v>
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>30.40970589960398</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C45" t="n">
-        <v>30.40970589960398</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D45" t="n">
-        <v>30.40970589960398</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E45" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
         <v>725.4530095217538</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>876.8459881112726</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141908</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="U45" t="n">
-        <v>689.4702815141908</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="V45" t="n">
-        <v>689.4702815141908</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="W45" t="n">
-        <v>446.0215048700907</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="X45" t="n">
-        <v>238.1700046645579</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="Y45" t="n">
-        <v>30.40970589960398</v>
+        <v>495.6683447969875</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7848,10 +7848,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>271.4402576706899</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8063,19 +8063,19 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>189.9047864055835</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>168.5314335381781</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9020,13 +9020,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P15" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9494,10 +9494,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>233.6791982203443</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9722,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10436,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10667,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11144,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,28 +23305,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>291.8274516623475</v>
       </c>
     </row>
     <row r="12">
@@ -23354,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>88.23308959054049</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.07350359897357</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23500,13 +23500,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T14" t="n">
-        <v>150.6253511395826</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23557,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>110.2677875732154</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>47.6962966976393</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>138.0053911458572</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23791,13 +23791,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>335.9273853140192</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23822,7 +23822,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.7530398847217</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>21.17305198522826</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23931,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>46.82786452690794</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>280.8531039918463</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>226.9460371887057</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24171,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>98.1469632631722</v>
       </c>
       <c r="U23" t="n">
-        <v>240.1525967516569</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>41.62640352501036</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24335,19 +24335,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24502,13 +24502,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24530,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,10 +24572,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>126.7882030360626</v>
+        <v>79.7748692427561</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24697,10 +24697,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>297.7433466523345</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24730,22 +24730,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>49.05096647893927</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24767,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24809,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>158.5824984431671</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>50.10013888409014</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24919,10 +24919,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>284.9381847551875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24961,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>283.8997115633647</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>41.53611409883725</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,10 +25046,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25058,10 +25058,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>223.4747221806962</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25119,13 +25119,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>362.8771690273874</v>
+        <v>312.9645104224461</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>36.26901108812098</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>202.1274745670657</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D38" t="n">
         <v>113.6687527430239</v>
@@ -25408,7 +25408,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,25 +25435,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25475,22 +25475,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>57.63530625521815</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>180.9337498050905</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25593,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,10 +25636,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25675,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>307.3148329761767</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>35.70223691486467</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25721,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>103.4431285189959</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25833,10 +25833,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25918,16 +25918,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>127.0728313279712</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>13.81877842727317</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26006,10 +26006,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357424.0807775802</v>
+        <v>357424.0807775803</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>357424.0807775803</v>
+        <v>357424.0807775804</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>357424.0807775803</v>
+        <v>357424.0807775804</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>357424.0807775804</v>
+        <v>357424.0807775802</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357424.0807775804</v>
+        <v>357424.0807775803</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357424.0807775804</v>
+        <v>357424.0807775802</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357424.0807775804</v>
+        <v>357424.0807775803</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357424.0807775803</v>
+        <v>357424.0807775804</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982126</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982124</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
         <v>249241.0087969986</v>
@@ -26346,16 +26346,16 @@
         <v>249241.0087969986</v>
       </c>
       <c r="M2" t="n">
+        <v>249241.0087969985</v>
+      </c>
+      <c r="N2" t="n">
         <v>249241.0087969986</v>
-      </c>
-      <c r="N2" t="n">
-        <v>249241.0087969985</v>
       </c>
       <c r="O2" t="n">
         <v>249241.0087969986</v>
       </c>
       <c r="P2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347968.0377624266</v>
+        <v>347968.0377624267</v>
       </c>
       <c r="C4" t="n">
         <v>304227.7958470787</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>212998.8486125796</v>
+        <v>212998.8486125792</v>
       </c>
       <c r="C6" t="n">
-        <v>202695.9406007039</v>
+        <v>202695.9406007041</v>
       </c>
       <c r="D6" t="n">
-        <v>263272.2627873722</v>
+        <v>263272.262787372</v>
       </c>
       <c r="E6" t="n">
-        <v>209305.0718206177</v>
+        <v>197087.0612005772</v>
       </c>
       <c r="F6" t="n">
-        <v>209305.0718206176</v>
+        <v>197087.0612005771</v>
       </c>
       <c r="G6" t="n">
-        <v>209305.0718206177</v>
+        <v>197087.0612005772</v>
       </c>
       <c r="H6" t="n">
-        <v>209305.0718206177</v>
+        <v>197087.0612005772</v>
       </c>
       <c r="I6" t="n">
-        <v>209305.0718206177</v>
+        <v>197087.0612005772</v>
       </c>
       <c r="J6" t="n">
-        <v>195303.8396803384</v>
+        <v>183085.8290602979</v>
       </c>
       <c r="K6" t="n">
-        <v>161048.118886985</v>
+        <v>148830.1082669446</v>
       </c>
       <c r="L6" t="n">
-        <v>209305.0718206177</v>
+        <v>197087.0612005772</v>
       </c>
       <c r="M6" t="n">
-        <v>209305.0718206177</v>
+        <v>197087.0612005771</v>
       </c>
       <c r="N6" t="n">
-        <v>209305.0718206176</v>
+        <v>197087.0612005772</v>
       </c>
       <c r="O6" t="n">
-        <v>209305.0718206176</v>
+        <v>197087.0612005772</v>
       </c>
       <c r="P6" t="n">
-        <v>209305.0718206176</v>
+        <v>197087.0612005772</v>
       </c>
     </row>
   </sheetData>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>351.667977894723</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27423,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>314.7464955296302</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,28 +27460,28 @@
         <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>111.257836229695</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>65.10160868453272</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3194511719875</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>95.1029440082626</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,16 +27554,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>136.0652629419711</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>173.4009736375838</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>377.0938796328912</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,28 +27660,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>179.6244982918734</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,22 +27700,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>154.8758545618492</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>159.4193791955982</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>107.6671775926096</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>392.3966171480263</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>189.4956161727077</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>20.33988403799381</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27991,13 +27991,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>16.10061421062358</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28061,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34783,19 +34783,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>34.55702612384782</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P15" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36214,10 +36214,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>91.0829537758999</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37156,13 +37156,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37864,13 +37864,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
